--- a/biology/Médecine/Syndrome_orofaciodigital/Syndrome_orofaciodigital.xlsx
+++ b/biology/Médecine/Syndrome_orofaciodigital/Syndrome_orofaciodigital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome orofaciodigital est un groupe regroupant au moins 13 maladies apparentées qui affectent le développement de la bouche, des traits du visage ainsi que les doigts. Il touche 1 nouveau né sur 50 000 à 250 000. La majorité des cas sont de type 1[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome orofaciodigital est un groupe regroupant au moins 13 maladies apparentées qui affectent le développement de la bouche, des traits du visage ainsi que les doigts. Il touche 1 nouveau né sur 50 000 à 250 000. La majorité des cas sont de type 1.
 Différents types
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) « Oral-facial-digital syndrome: MedlinePlus Genetics », sur medlineplus.gov (consulté le 5 avril 2024)
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
